--- a/public/listeReservations.xlsx
+++ b/public/listeReservations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t xml:space="preserve">Registration number </t>
   </si>
@@ -41,7 +41,10 @@
     <t xml:space="preserve">End date </t>
   </si>
   <si>
-    <t>Audi</t>
+    <t>150tunis150</t>
+  </si>
+  <si>
+    <t>BMW</t>
   </si>
   <si>
     <t>5ch</t>
@@ -50,6 +53,36 @@
     <t>essence</t>
   </si>
   <si>
+    <t>non reservé</t>
+  </si>
+  <si>
+    <t>2023-04-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-27 00:00:00</t>
+  </si>
+  <si>
+    <t>125tunis125</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>6ch</t>
+  </si>
+  <si>
+    <t>gazoil</t>
+  </si>
+  <si>
+    <t>2023-04-18 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>1258tunis222</t>
+  </si>
+  <si>
     <t>reservé</t>
   </si>
   <si>
@@ -57,33 +90,6 @@
   </si>
   <si>
     <t>2023-04-29 00:00:00</t>
-  </si>
-  <si>
-    <t>125tunis125</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>6ch</t>
-  </si>
-  <si>
-    <t>gazoil</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-05-05 00:00:00</t>
-  </si>
-  <si>
-    <t>150tunis150</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>2023-04-21 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,81 +464,107 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2">
-        <v>555</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1110</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>750</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>555</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>1110</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="G5">
+        <v>1555</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s">
-        <v>13</v>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/listeReservations.xlsx
+++ b/public/listeReservations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t xml:space="preserve">Registration number </t>
   </si>
@@ -41,55 +41,34 @@
     <t xml:space="preserve">End date </t>
   </si>
   <si>
+    <t>1258tunis222</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>5ch</t>
+  </si>
+  <si>
+    <t>essence</t>
+  </si>
+  <si>
+    <t>reservé</t>
+  </si>
+  <si>
+    <t>2023-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-26 00:00:00</t>
+  </si>
+  <si>
     <t>150tunis150</t>
   </si>
   <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>5ch</t>
-  </si>
-  <si>
-    <t>essence</t>
-  </si>
-  <si>
-    <t>non reservé</t>
-  </si>
-  <si>
-    <t>2023-04-20 00:00:00</t>
-  </si>
-  <si>
     <t>2023-04-27 00:00:00</t>
   </si>
   <si>
-    <t>125tunis125</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>6ch</t>
-  </si>
-  <si>
-    <t>gazoil</t>
-  </si>
-  <si>
-    <t>2023-04-18 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-28 00:00:00</t>
-  </si>
-  <si>
-    <t>1258tunis222</t>
-  </si>
-  <si>
-    <t>reservé</t>
-  </si>
-  <si>
-    <t>2023-04-19 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-29 00:00:00</t>
+    <t>2023-05-03 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -429,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1110</v>
+        <v>750</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -494,77 +473,25 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>150</v>
+        <v>1110</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>750</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>555</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1555</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
